--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და ფართობი ადგილობრივი ერთეულების ჩათვლით.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და ფართობი ადგილობრივი ერთეულების ჩათვლით.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\2 სასტუმროების რაოდენობა &amp; ფართობი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2 სასტუმროების რაოდენობა &amp; ფართობი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="72">
   <si>
     <t xml:space="preserve">(დეკლარირებული მონაცემები) </t>
   </si>
@@ -312,13 +312,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -459,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -488,7 +488,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -500,20 +499,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -529,6 +522,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,14 +826,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" style="5" customWidth="1"/>
-    <col min="2" max="25" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="18" width="13.42578125" style="36" customWidth="1"/>
+    <col min="19" max="25" width="13.42578125" style="1" customWidth="1"/>
     <col min="26" max="253" width="9.140625" style="1"/>
     <col min="254" max="254" width="29.7109375" style="1" customWidth="1"/>
     <col min="255" max="256" width="20.140625" style="1" customWidth="1"/>
@@ -1958,142 +1973,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>2010</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27">
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
         <v>2011</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28">
+      <c r="E3" s="24"/>
+      <c r="F3" s="25">
         <v>2012</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27">
+      <c r="G3" s="26"/>
+      <c r="H3" s="24">
         <v>2013</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28">
+      <c r="I3" s="24"/>
+      <c r="J3" s="25">
         <v>2014</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27">
+      <c r="K3" s="26"/>
+      <c r="L3" s="24">
         <v>2015</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25">
         <v>2016</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="27">
+      <c r="O3" s="26"/>
+      <c r="P3" s="24">
         <v>2017</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25">
         <v>2018</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="27">
+      <c r="S3" s="26"/>
+      <c r="T3" s="24">
         <v>2019</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28">
+      <c r="U3" s="24"/>
+      <c r="V3" s="25">
         <v>2020</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28">
+      <c r="W3" s="26"/>
+      <c r="X3" s="25">
         <v>2021</v>
       </c>
-      <c r="Y3" s="29"/>
+      <c r="Y3" s="26"/>
     </row>
     <row r="4" spans="1:25" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -2122,76 +2153,76 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>126</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>238532.77</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>153</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>260647.83</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>175</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>256217.9</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>175</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>257924</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>221</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>286390</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>350</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>364085</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>463</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>511786</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>490</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>520418</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>503</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <v>550138.39</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <v>512</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="16">
         <v>705651.19999999995</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="14">
         <v>315</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <v>500856</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="14">
         <v>386</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="16">
         <v>653855.19999999995</v>
       </c>
     </row>
@@ -2199,76 +2230,76 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>65</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>70722.2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>87</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>121798.39999999999</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>96</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>151971</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>111</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>144527</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>139</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>176513</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>170</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>283435</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>215</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>430161</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>235</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>466213</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>232</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>486380</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <v>218</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>474819</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <v>126</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="16">
         <v>395339</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <v>243</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="16">
         <v>771373</v>
       </c>
     </row>
@@ -2276,76 +2307,76 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="J7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="15">
-        <v>1</v>
-      </c>
-      <c r="S7" s="17">
+      <c r="R7" s="14">
+        <v>1</v>
+      </c>
+      <c r="S7" s="16">
         <v>1100</v>
       </c>
-      <c r="T7" s="15">
-        <v>2</v>
-      </c>
-      <c r="U7" s="17">
+      <c r="T7" s="14">
+        <v>2</v>
+      </c>
+      <c r="U7" s="16">
         <v>410</v>
       </c>
-      <c r="V7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="18" t="s">
+      <c r="V7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <v>4</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>763</v>
       </c>
     </row>
@@ -2353,76 +2384,76 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>29</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>56962</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>44</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>64663</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>74</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>57503</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>76</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>59019</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>82</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>65639</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>87</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>63102</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>104</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <v>101407</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>113</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>119185</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>117</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>134200</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="14">
         <v>108</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>107379</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <v>84</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="16">
         <v>92196</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <v>129</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="16">
         <v>123949.87</v>
       </c>
     </row>
@@ -2430,76 +2461,76 @@
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
         <v>320</v>
       </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16">
         <v>304</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>4</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>1144</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>3</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>1020</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>3</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <v>1020</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>3</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>1020</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>3</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <v>560</v>
       </c>
-      <c r="T9" s="15">
-        <v>2</v>
-      </c>
-      <c r="U9" s="17">
+      <c r="T9" s="14">
+        <v>2</v>
+      </c>
+      <c r="U9" s="16">
         <v>1898</v>
       </c>
-      <c r="V9" s="15">
-        <v>1</v>
-      </c>
-      <c r="W9" s="17">
+      <c r="V9" s="14">
+        <v>1</v>
+      </c>
+      <c r="W9" s="16">
         <v>340</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <v>4</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <v>1521</v>
       </c>
     </row>
@@ -2507,76 +2538,76 @@
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>12</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>7282</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>23</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>13255</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>27</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>18423</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>27</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>18432</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>22</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>17018</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>26</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>19582</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>33</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <v>22286</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="14">
         <v>37</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>28998</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <v>35</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>28832</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="14">
         <v>27</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>20407</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <v>20</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="16">
         <v>26003</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="14">
         <v>23</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="16">
         <v>25678</v>
       </c>
     </row>
@@ -2584,76 +2615,76 @@
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
         <v>3546</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
         <v>776</v>
       </c>
-      <c r="F11" s="15">
-        <v>2</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+      <c r="G11" s="16">
         <v>1681</v>
       </c>
-      <c r="H11" s="15">
-        <v>2</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
         <v>1856</v>
       </c>
-      <c r="J11" s="15">
-        <v>2</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="J11" s="14">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16">
         <v>1856</v>
       </c>
-      <c r="L11" s="15">
-        <v>2</v>
-      </c>
-      <c r="M11" s="17">
+      <c r="L11" s="14">
+        <v>2</v>
+      </c>
+      <c r="M11" s="16">
         <v>3695</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>4</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>4283</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>4</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>4568</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <v>4</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>3375</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <v>3</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="16">
         <v>1923</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>3</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="16">
         <v>1908</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <v>12</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="16">
         <v>4538</v>
       </c>
     </row>
@@ -2661,76 +2692,76 @@
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>3528</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>3549</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>6355</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>5</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>5611</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>6</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>6171</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>7</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>6521</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>7</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>6327</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="14">
         <v>5</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>5477</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <v>5</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>3953</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="14">
         <v>5</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="16">
         <v>3953</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <v>5</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="16">
         <v>3935</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="14">
         <v>8</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="16">
         <v>3646</v>
       </c>
     </row>
@@ -2738,76 +2769,76 @@
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>17</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>15604.9</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>23</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>17836.900000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>38</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>31577</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>41</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>34267</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>45</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>34307</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>56</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>51766</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>72</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <v>60285</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="14">
         <v>79</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>81124</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <v>86</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>86833</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="14">
         <v>88</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="16">
         <v>93766</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <v>52</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="16">
         <v>143227</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="14">
         <v>109</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="16">
         <v>173601</v>
       </c>
     </row>
@@ -2815,76 +2846,76 @@
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="17">
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="16">
         <v>1167</v>
       </c>
     </row>
@@ -2892,76 +2923,76 @@
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>19</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>11562</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>23</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>15111</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>40</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>36346</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>39</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>36351</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>61</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>32605</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>76</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>33490</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <v>84</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <v>36563</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="14">
         <v>87</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>48280</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="14">
         <v>95</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="16">
         <v>55565</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="14">
         <v>111</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="16">
         <v>61241</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="14">
         <v>61</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="16">
         <v>40880</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="14">
         <v>108</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="16">
         <v>50230</v>
       </c>
     </row>
@@ -2969,76 +3000,76 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16">
         <v>3140</v>
       </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
         <v>2500</v>
       </c>
-      <c r="F16" s="15">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
         <v>2912</v>
       </c>
-      <c r="H16" s="15">
-        <v>2</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16">
         <v>2913</v>
       </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
         <v>352</v>
       </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="17">
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
         <v>353</v>
       </c>
-      <c r="N16" s="15">
-        <v>2</v>
-      </c>
-      <c r="O16" s="17">
+      <c r="N16" s="14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="16">
         <v>553</v>
       </c>
-      <c r="P16" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="16">
         <v>353</v>
       </c>
-      <c r="R16" s="15">
-        <v>2</v>
-      </c>
-      <c r="S16" s="17">
+      <c r="R16" s="14">
+        <v>2</v>
+      </c>
+      <c r="S16" s="16">
         <v>853</v>
       </c>
-      <c r="T16" s="15">
-        <v>2</v>
-      </c>
-      <c r="U16" s="17">
+      <c r="T16" s="14">
+        <v>2</v>
+      </c>
+      <c r="U16" s="16">
         <v>800</v>
       </c>
-      <c r="V16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X16" s="15">
+      <c r="V16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" s="14">
         <v>3</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y16" s="16">
         <v>760</v>
       </c>
     </row>
@@ -3046,76 +3077,76 @@
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>4</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>3193</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>7</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>4762</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>8</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>27154</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>9</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>27174</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>10</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>43007</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>10</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>42990</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>9</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="16">
         <v>38755</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>15</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <v>44125</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>14</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="16">
         <v>49057</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="14">
         <v>16</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="16">
         <v>49809</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>14</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="16">
         <v>48417</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="14">
         <v>28</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="16">
         <v>71021</v>
       </c>
     </row>
@@ -3123,76 +3154,76 @@
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
+      <c r="C18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
         <v>200</v>
       </c>
-      <c r="H18" s="15">
-        <v>2</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="H18" s="14">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16">
         <v>239</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>3</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>239</v>
       </c>
-      <c r="L18" s="15">
-        <v>2</v>
-      </c>
-      <c r="M18" s="17">
+      <c r="L18" s="14">
+        <v>2</v>
+      </c>
+      <c r="M18" s="16">
         <v>239</v>
       </c>
-      <c r="N18" s="15">
-        <v>2</v>
-      </c>
-      <c r="O18" s="17">
+      <c r="N18" s="14">
+        <v>2</v>
+      </c>
+      <c r="O18" s="16">
         <v>239</v>
       </c>
-      <c r="P18" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="17">
+      <c r="P18" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="16">
         <v>239</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="14">
         <v>5</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="16">
         <v>658</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="14">
         <v>3</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="16">
         <v>243</v>
       </c>
-      <c r="V18" s="15">
-        <v>1</v>
-      </c>
-      <c r="W18" s="17">
+      <c r="V18" s="14">
+        <v>1</v>
+      </c>
+      <c r="W18" s="16">
         <v>75</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="14">
         <v>4</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="16">
         <v>465</v>
       </c>
     </row>
@@ -3200,76 +3231,76 @@
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>4855</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>7</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>5488</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>7</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>21997</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>10</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>22158</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <v>11</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>22788</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>10</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>22378</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <v>11</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <v>22653</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="14">
         <v>11</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="16">
         <v>22653</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="14">
         <v>12</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="16">
         <v>32262</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="14">
         <v>15</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="16">
         <v>33228</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="14">
         <v>13</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="16">
         <v>33023</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="14">
         <v>18</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y19" s="16">
         <v>117524</v>
       </c>
     </row>
@@ -3277,76 +3308,76 @@
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="B20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
         <v>500</v>
       </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
         <v>500</v>
       </c>
-      <c r="J20" s="15">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
         <v>500</v>
       </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="16">
         <v>650</v>
       </c>
-      <c r="N20" s="15">
-        <v>1</v>
-      </c>
-      <c r="O20" s="17">
+      <c r="N20" s="14">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16">
         <v>650</v>
       </c>
-      <c r="P20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="17">
+      <c r="P20" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="16">
         <v>650</v>
       </c>
-      <c r="R20" s="15">
-        <v>1</v>
-      </c>
-      <c r="S20" s="17">
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="16">
         <v>500</v>
       </c>
-      <c r="T20" s="15">
-        <v>2</v>
-      </c>
-      <c r="U20" s="17">
+      <c r="T20" s="14">
+        <v>2</v>
+      </c>
+      <c r="U20" s="16">
         <v>1260</v>
       </c>
-      <c r="V20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X20" s="15">
+      <c r="V20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" s="14">
         <v>3</v>
       </c>
-      <c r="Y20" s="17">
+      <c r="Y20" s="16">
         <v>900</v>
       </c>
     </row>
@@ -3354,76 +3385,76 @@
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16">
         <v>3020</v>
       </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="16">
         <v>3020</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
         <v>600</v>
       </c>
-      <c r="H21" s="15">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17">
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
         <v>600</v>
       </c>
-      <c r="J21" s="15">
-        <v>2</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="J21" s="14">
+        <v>2</v>
+      </c>
+      <c r="K21" s="16">
         <v>2476</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>3</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>2826</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>4</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="16">
         <v>2906</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <v>5</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <v>3156</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="14">
         <v>5</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="16">
         <v>3156</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="14">
         <v>5</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="16">
         <v>3706</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="14">
         <v>6</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="16">
         <v>3836</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="14">
         <v>7</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="16">
         <v>3843</v>
       </c>
     </row>
@@ -3431,76 +3462,76 @@
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="B22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="16">
         <v>360</v>
       </c>
-      <c r="L22" s="15">
-        <v>2</v>
-      </c>
-      <c r="M22" s="17">
+      <c r="L22" s="14">
+        <v>2</v>
+      </c>
+      <c r="M22" s="16">
         <v>350</v>
       </c>
-      <c r="N22" s="15">
-        <v>1</v>
-      </c>
-      <c r="O22" s="17">
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16">
         <v>360</v>
       </c>
-      <c r="P22" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="P22" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="16">
         <v>360</v>
       </c>
-      <c r="R22" s="15">
-        <v>2</v>
-      </c>
-      <c r="S22" s="17">
+      <c r="R22" s="14">
+        <v>2</v>
+      </c>
+      <c r="S22" s="16">
         <v>610</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="14">
         <v>3</v>
       </c>
-      <c r="U22" s="17">
+      <c r="U22" s="16">
         <v>1010</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="14">
         <v>3</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="16">
         <v>1110</v>
       </c>
-      <c r="X22" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="17">
+      <c r="X22" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="16">
         <v>5250</v>
       </c>
     </row>
@@ -3508,76 +3539,76 @@
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15">
-        <v>2</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16">
         <v>300</v>
       </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
         <v>300</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>5</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>1351</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>6</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>992</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>5</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16">
         <v>1206</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>6</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <v>1750</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <v>7</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="16">
         <v>2444</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <v>4</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="16">
         <v>1368</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="14">
         <v>6</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="16">
         <v>2660</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="14">
         <v>7</v>
       </c>
-      <c r="U23" s="17">
+      <c r="U23" s="16">
         <v>2968</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="14">
         <v>3</v>
       </c>
-      <c r="W23" s="17">
+      <c r="W23" s="16">
         <v>1492</v>
       </c>
-      <c r="X23" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="17">
+      <c r="X23" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="16">
         <v>792</v>
       </c>
     </row>
@@ -3585,76 +3616,76 @@
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="B24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16">
         <v>26018</v>
       </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="16">
         <v>26018</v>
       </c>
-      <c r="N24" s="15">
-        <v>1</v>
-      </c>
-      <c r="O24" s="17">
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
         <v>26018</v>
       </c>
-      <c r="P24" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="17">
+      <c r="P24" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="16">
         <v>26194</v>
       </c>
-      <c r="R24" s="15">
-        <v>1</v>
-      </c>
-      <c r="S24" s="17">
+      <c r="R24" s="14">
+        <v>1</v>
+      </c>
+      <c r="S24" s="16">
         <v>26018</v>
       </c>
-      <c r="T24" s="15">
-        <v>2</v>
-      </c>
-      <c r="U24" s="17">
+      <c r="T24" s="14">
+        <v>2</v>
+      </c>
+      <c r="U24" s="16">
         <v>26458</v>
       </c>
-      <c r="V24" s="15">
-        <v>2</v>
-      </c>
-      <c r="W24" s="17">
+      <c r="V24" s="14">
+        <v>2</v>
+      </c>
+      <c r="W24" s="16">
         <v>26411</v>
       </c>
-      <c r="X24" s="15">
+      <c r="X24" s="14">
         <v>3</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Y24" s="16">
         <v>26568</v>
       </c>
     </row>
@@ -3662,76 +3693,76 @@
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="15">
-        <v>1</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
         <v>530</v>
       </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
         <v>918</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
         <v>1403</v>
       </c>
-      <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
         <v>1403</v>
       </c>
-      <c r="J25" s="15">
-        <v>1</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
         <v>1403</v>
       </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="17">
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="16">
         <v>735</v>
       </c>
-      <c r="N25" s="15">
-        <v>1</v>
-      </c>
-      <c r="O25" s="17">
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16">
         <v>735</v>
       </c>
-      <c r="P25" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="17">
+      <c r="P25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="16">
         <v>735</v>
       </c>
-      <c r="R25" s="15">
-        <v>1</v>
-      </c>
-      <c r="S25" s="17">
+      <c r="R25" s="14">
+        <v>1</v>
+      </c>
+      <c r="S25" s="16">
         <v>918</v>
       </c>
-      <c r="T25" s="15">
-        <v>2</v>
-      </c>
-      <c r="U25" s="17">
+      <c r="T25" s="14">
+        <v>2</v>
+      </c>
+      <c r="U25" s="16">
         <v>1033</v>
       </c>
-      <c r="V25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X25" s="15">
+      <c r="V25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" s="14">
         <v>4</v>
       </c>
-      <c r="Y25" s="17">
+      <c r="Y25" s="16">
         <v>2050</v>
       </c>
     </row>
@@ -3739,76 +3770,76 @@
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="B26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
         <v>100</v>
       </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16">
         <v>100</v>
       </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
         <v>100</v>
       </c>
-      <c r="L26" s="15">
-        <v>2</v>
-      </c>
-      <c r="M26" s="17">
+      <c r="L26" s="14">
+        <v>2</v>
+      </c>
+      <c r="M26" s="16">
         <v>330</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="14">
         <v>4</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="16">
         <v>934</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="14">
         <v>4</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="16">
         <v>914</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="14">
         <v>4</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="16">
         <v>1014</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="14">
         <v>4</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="16">
         <v>1094</v>
       </c>
-      <c r="V26" s="15">
-        <v>2</v>
-      </c>
-      <c r="W26" s="17">
+      <c r="V26" s="14">
+        <v>2</v>
+      </c>
+      <c r="W26" s="16">
         <v>510</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="14">
         <v>3</v>
       </c>
-      <c r="Y26" s="17">
+      <c r="Y26" s="16">
         <v>790</v>
       </c>
     </row>
@@ -3816,76 +3847,76 @@
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>5</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>1801.3</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>12</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>2674.3</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>16</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>2958</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>18</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="16">
         <v>3384</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="14">
         <v>18</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>3429</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>16</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>3013</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="14">
         <v>17</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="16">
         <v>3139</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="14">
         <v>19</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>3569</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="14">
         <v>19</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="16">
         <v>3730</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="14">
         <v>27</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="16">
         <v>5720</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="14">
         <v>12</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="16">
         <v>3015</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X27" s="14">
         <v>30</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="Y27" s="16">
         <v>11299</v>
       </c>
     </row>
@@ -3893,76 +3924,76 @@
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
         <v>502</v>
       </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
         <v>502</v>
       </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
         <v>502</v>
       </c>
-      <c r="H28" s="15">
-        <v>2</v>
-      </c>
-      <c r="I28" s="17">
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16">
         <v>2681</v>
       </c>
-      <c r="J28" s="15">
-        <v>2</v>
-      </c>
-      <c r="K28" s="17">
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="K28" s="16">
         <v>2902</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <v>3</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>3796</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="14">
         <v>3</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="16">
         <v>3796</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="14">
         <v>3</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="16">
         <v>3796</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="14">
         <v>3</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="16">
         <v>5200</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="14">
         <v>4</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="16">
         <v>7734</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="14">
         <v>5</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="16">
         <v>8134</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="14">
         <v>9</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Y28" s="16">
         <v>13390</v>
       </c>
     </row>
@@ -3970,76 +4001,76 @@
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="15">
-        <v>2</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="16">
         <v>126</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>194</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>3</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>196</v>
       </c>
-      <c r="H29" s="15">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17">
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
         <v>60</v>
       </c>
-      <c r="J29" s="15">
-        <v>1</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="16">
         <v>60</v>
       </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="17">
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="16">
         <v>60</v>
       </c>
-      <c r="N29" s="15">
-        <v>1</v>
-      </c>
-      <c r="O29" s="17">
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="16">
         <v>60</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="14">
         <v>5</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="16">
         <v>455</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="14">
         <v>4</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="16">
         <v>475</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="14">
         <v>4</v>
       </c>
-      <c r="U29" s="17">
+      <c r="U29" s="16">
         <v>605</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="14">
         <v>3</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W29" s="16">
         <v>415</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X29" s="14">
         <v>8</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="Y29" s="16">
         <v>2015</v>
       </c>
     </row>
@@ -4047,76 +4078,76 @@
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>11</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>5317</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>15</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>14345</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>30</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>17562</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>38</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <v>15748</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <v>43</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <v>18407</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>42</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>19075</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="14">
         <v>48</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="16">
         <v>22236</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="14">
         <v>47</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="16">
         <v>23316</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="14">
         <v>47</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="16">
         <v>33264</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T30" s="14">
         <v>37</v>
       </c>
-      <c r="U30" s="17">
+      <c r="U30" s="16">
         <v>54991</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="14">
         <v>27</v>
       </c>
-      <c r="W30" s="17">
+      <c r="W30" s="16">
         <v>58148</v>
       </c>
-      <c r="X30" s="15">
+      <c r="X30" s="14">
         <v>70</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Y30" s="16">
         <v>98975</v>
       </c>
     </row>
@@ -4124,76 +4155,76 @@
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>3</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>472</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>570</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>1646</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>5</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <v>1646</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <v>5</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="16">
         <v>1646</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>7</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>2576</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <v>9</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="16">
         <v>3202</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="14">
         <v>10</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="16">
         <v>3362</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="14">
         <v>9</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="16">
         <v>3092</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="14">
         <v>10</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="16">
         <v>3492</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="14">
         <v>5</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W31" s="16">
         <v>2511</v>
       </c>
-      <c r="X31" s="15">
+      <c r="X31" s="14">
         <v>12</v>
       </c>
-      <c r="Y31" s="17">
+      <c r="Y31" s="16">
         <v>5375</v>
       </c>
     </row>
@@ -4201,76 +4232,76 @@
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16">
         <v>354</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R32" s="15">
-        <v>1</v>
-      </c>
-      <c r="S32" s="17">
+      <c r="D32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="14">
+        <v>1</v>
+      </c>
+      <c r="S32" s="16">
         <v>1910</v>
       </c>
-      <c r="T32" s="15">
-        <v>2</v>
-      </c>
-      <c r="U32" s="17">
+      <c r="T32" s="14">
+        <v>2</v>
+      </c>
+      <c r="U32" s="16">
         <v>2160</v>
       </c>
-      <c r="V32" s="15">
-        <v>2</v>
-      </c>
-      <c r="W32" s="17">
+      <c r="V32" s="14">
+        <v>2</v>
+      </c>
+      <c r="W32" s="16">
         <v>2160</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="14">
         <v>6</v>
       </c>
-      <c r="Y32" s="17">
+      <c r="Y32" s="16">
         <v>4750</v>
       </c>
     </row>
@@ -4278,76 +4309,76 @@
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>8</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>2836</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>10</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>3817</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>14</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="16">
         <v>6909</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>15</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <v>7418</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="14">
         <v>18</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <v>8165</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>19</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <v>8625</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <v>22</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="16">
         <v>8254</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="14">
         <v>21</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="16">
         <v>7823</v>
       </c>
-      <c r="R33" s="15">
+      <c r="R33" s="14">
         <v>21</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="16">
         <v>6567</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="14">
         <v>24</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U33" s="16">
         <v>7309</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="14">
         <v>10</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W33" s="16">
         <v>4144</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X33" s="14">
         <v>21</v>
       </c>
-      <c r="Y33" s="17">
+      <c r="Y33" s="16">
         <v>6094</v>
       </c>
     </row>
@@ -4355,76 +4386,76 @@
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="33">
         <v>3</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="23">
         <v>950</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="33">
         <v>4</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="23">
         <v>1210</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="33">
         <v>7</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="23">
         <v>2110</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="33">
         <v>11</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="23">
         <v>8190</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="33">
         <v>12</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="23">
         <v>8470</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="33">
         <v>13</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="23">
         <v>8451</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="33">
         <v>15</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="23">
         <v>11255</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="33">
         <v>15</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="23">
         <v>11544</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="33">
         <v>16</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="23">
         <v>17197</v>
       </c>
-      <c r="T34" s="25">
+      <c r="T34" s="22">
         <v>14</v>
       </c>
-      <c r="U34" s="26">
+      <c r="U34" s="23">
         <v>173338</v>
       </c>
-      <c r="V34" s="25">
+      <c r="V34" s="22">
         <v>13</v>
       </c>
-      <c r="W34" s="26">
+      <c r="W34" s="23">
         <v>15852</v>
       </c>
-      <c r="X34" s="25">
+      <c r="X34" s="22">
         <v>20</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="Y34" s="23">
         <v>12677</v>
       </c>
     </row>
@@ -4432,76 +4463,76 @@
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y35" s="16" t="s">
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4509,76 +4540,76 @@
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>5</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>14179</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>9</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>11516</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <v>10</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="16">
         <v>15024</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>12</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <v>15653</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="14">
         <v>11</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <v>15789</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <v>10</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>15639</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="14">
         <v>10</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="16">
         <v>15680</v>
       </c>
-      <c r="P36" s="15">
+      <c r="P36" s="14">
         <v>11</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="16">
         <v>15790</v>
       </c>
-      <c r="R36" s="15">
+      <c r="R36" s="14">
         <v>12</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="16">
         <v>16226</v>
       </c>
-      <c r="T36" s="15">
+      <c r="T36" s="14">
         <v>13</v>
       </c>
-      <c r="U36" s="17">
+      <c r="U36" s="16">
         <v>14147</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="14">
         <v>4</v>
       </c>
-      <c r="W36" s="17">
+      <c r="W36" s="16">
         <v>4680</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X36" s="14">
         <v>18</v>
       </c>
-      <c r="Y36" s="17">
+      <c r="Y36" s="16">
         <v>17222</v>
       </c>
     </row>
@@ -4586,76 +4617,76 @@
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="15">
-        <v>2</v>
-      </c>
-      <c r="C37" s="17">
+      <c r="B37" s="14">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
         <v>325</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>3</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="16">
         <v>462</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="14">
         <v>3</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>555</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>4</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <v>1036</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="14">
         <v>4</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="16">
         <v>1036</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="16">
         <v>1066</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <v>4</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="16">
         <v>1066</v>
       </c>
-      <c r="P37" s="15">
+      <c r="P37" s="14">
         <v>4</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="16">
         <v>1066</v>
       </c>
-      <c r="R37" s="15">
+      <c r="R37" s="14">
         <v>4</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="16">
         <v>1066</v>
       </c>
-      <c r="T37" s="15">
+      <c r="T37" s="14">
         <v>4</v>
       </c>
-      <c r="U37" s="17">
+      <c r="U37" s="16">
         <v>475</v>
       </c>
-      <c r="V37" s="15">
-        <v>2</v>
-      </c>
-      <c r="W37" s="17">
+      <c r="V37" s="14">
+        <v>2</v>
+      </c>
+      <c r="W37" s="16">
         <v>380</v>
       </c>
-      <c r="X37" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="17">
+      <c r="X37" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="16">
         <v>380</v>
       </c>
     </row>
@@ -4663,76 +4694,76 @@
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>5</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>1585</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>7</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="16">
         <v>1993</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="14">
         <v>8</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>3791</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>11</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="16">
         <v>4758</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="14">
         <v>11</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="16">
         <v>4983</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="14">
         <v>14</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>6601</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="14">
         <v>16</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="16">
         <v>7921</v>
       </c>
-      <c r="P38" s="15">
+      <c r="P38" s="14">
         <v>16</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="16">
         <v>8145</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="14">
         <v>19</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="16">
         <v>8897</v>
       </c>
-      <c r="T38" s="15">
+      <c r="T38" s="14">
         <v>22</v>
       </c>
-      <c r="U38" s="17">
+      <c r="U38" s="16">
         <v>8470</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="14">
         <v>13</v>
       </c>
-      <c r="W38" s="17">
+      <c r="W38" s="16">
         <v>7891</v>
       </c>
-      <c r="X38" s="15">
+      <c r="X38" s="14">
         <v>20</v>
       </c>
-      <c r="Y38" s="17">
+      <c r="Y38" s="16">
         <v>15687.8</v>
       </c>
     </row>
@@ -4740,76 +4771,76 @@
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>13</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>20424</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>21</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="16">
         <v>25628</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>23</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="16">
         <v>38698</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>27</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="16">
         <v>38556</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="14">
         <v>36</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="16">
         <v>44607</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="14">
         <v>45</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>51529</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="14">
         <v>51</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="16">
         <v>54392</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="14">
         <v>57</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="16">
         <v>62521</v>
       </c>
-      <c r="R39" s="15">
+      <c r="R39" s="14">
         <v>55</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="16">
         <v>62179</v>
       </c>
-      <c r="T39" s="15">
+      <c r="T39" s="14">
         <v>63</v>
       </c>
-      <c r="U39" s="17">
+      <c r="U39" s="16">
         <v>64314</v>
       </c>
-      <c r="V39" s="15">
+      <c r="V39" s="14">
         <v>37</v>
       </c>
-      <c r="W39" s="17">
+      <c r="W39" s="16">
         <v>66584</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X39" s="14">
         <v>61</v>
       </c>
-      <c r="Y39" s="17">
+      <c r="Y39" s="16">
         <v>84462</v>
       </c>
     </row>
@@ -4817,76 +4848,76 @@
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>3</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>3213</v>
       </c>
-      <c r="D40" s="15">
-        <v>2</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="D40" s="14">
+        <v>2</v>
+      </c>
+      <c r="E40" s="16">
         <v>2820</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="14">
         <v>3</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>2881</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>5</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="16">
         <v>2860</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="14">
         <v>8</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="16">
         <v>3474</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="14">
         <v>9</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="16">
         <v>3642</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="14">
         <v>10</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="16">
         <v>4172</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="14">
         <v>9</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="16">
         <v>4114</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="14">
         <v>11</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="16">
         <v>6495</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="14">
         <v>22</v>
       </c>
-      <c r="U40" s="17">
+      <c r="U40" s="16">
         <v>12199</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="14">
         <v>18</v>
       </c>
-      <c r="W40" s="17">
+      <c r="W40" s="16">
         <v>11038</v>
       </c>
-      <c r="X40" s="15">
+      <c r="X40" s="14">
         <v>29</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Y40" s="16">
         <v>22390</v>
       </c>
     </row>
@@ -4894,76 +4925,76 @@
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="15">
-        <v>2</v>
-      </c>
-      <c r="C41" s="17">
+      <c r="B41" s="14">
+        <v>2</v>
+      </c>
+      <c r="C41" s="16">
         <v>326</v>
       </c>
-      <c r="D41" s="15">
-        <v>2</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="14">
+        <v>2</v>
+      </c>
+      <c r="E41" s="16">
         <v>161</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>3</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="16">
         <v>306</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>3</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="16">
         <v>276</v>
       </c>
-      <c r="J41" s="15">
-        <v>2</v>
-      </c>
-      <c r="K41" s="17">
+      <c r="J41" s="14">
+        <v>2</v>
+      </c>
+      <c r="K41" s="16">
         <v>266</v>
       </c>
-      <c r="L41" s="15">
-        <v>2</v>
-      </c>
-      <c r="M41" s="17">
+      <c r="L41" s="14">
+        <v>2</v>
+      </c>
+      <c r="M41" s="16">
         <v>350</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="14">
         <v>3</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="16">
         <v>750</v>
       </c>
-      <c r="P41" s="15">
+      <c r="P41" s="14">
         <v>3</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="16">
         <v>750</v>
       </c>
-      <c r="R41" s="15">
+      <c r="R41" s="14">
         <v>3</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="16">
         <v>770</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="14">
         <v>5</v>
       </c>
-      <c r="U41" s="17">
+      <c r="U41" s="16">
         <v>1070</v>
       </c>
-      <c r="V41" s="15">
-        <v>1</v>
-      </c>
-      <c r="W41" s="17">
+      <c r="V41" s="14">
+        <v>1</v>
+      </c>
+      <c r="W41" s="16">
         <v>250</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X41" s="14">
         <v>5</v>
       </c>
-      <c r="Y41" s="17">
+      <c r="Y41" s="16">
         <v>1900</v>
       </c>
     </row>
@@ -4971,76 +5002,76 @@
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>6</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>6140</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>6</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <v>4543</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <v>6</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="16">
         <v>4754</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>8</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="16">
         <v>8384</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="14">
         <v>8</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="16">
         <v>8070</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="14">
         <v>10</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <v>8322</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="14">
         <v>8</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="16">
         <v>7602</v>
       </c>
-      <c r="P42" s="15">
+      <c r="P42" s="14">
         <v>9</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="16">
         <v>6212</v>
       </c>
-      <c r="R42" s="15">
+      <c r="R42" s="14">
         <v>10</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="16">
         <v>6244</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="14">
         <v>8</v>
       </c>
-      <c r="U42" s="17">
+      <c r="U42" s="16">
         <v>5938</v>
       </c>
-      <c r="V42" s="15">
+      <c r="V42" s="14">
         <v>5</v>
       </c>
-      <c r="W42" s="17">
+      <c r="W42" s="16">
         <v>3238</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="14">
         <v>14</v>
       </c>
-      <c r="Y42" s="17">
+      <c r="Y42" s="16">
         <v>5828</v>
       </c>
     </row>
@@ -5048,76 +5079,76 @@
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>4</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>858</v>
       </c>
-      <c r="D43" s="15">
-        <v>2</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="14">
+        <v>2</v>
+      </c>
+      <c r="E43" s="16">
         <v>260</v>
       </c>
-      <c r="F43" s="15">
-        <v>2</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="F43" s="14">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16">
         <v>220</v>
       </c>
-      <c r="H43" s="15">
-        <v>2</v>
-      </c>
-      <c r="I43" s="17">
+      <c r="H43" s="14">
+        <v>2</v>
+      </c>
+      <c r="I43" s="16">
         <v>220</v>
       </c>
-      <c r="J43" s="15">
-        <v>2</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="J43" s="14">
+        <v>2</v>
+      </c>
+      <c r="K43" s="16">
         <v>220</v>
       </c>
-      <c r="L43" s="15">
-        <v>2</v>
-      </c>
-      <c r="M43" s="17">
+      <c r="L43" s="14">
+        <v>2</v>
+      </c>
+      <c r="M43" s="16">
         <v>310</v>
       </c>
-      <c r="N43" s="15">
-        <v>2</v>
-      </c>
-      <c r="O43" s="17">
+      <c r="N43" s="14">
+        <v>2</v>
+      </c>
+      <c r="O43" s="16">
         <v>360</v>
       </c>
-      <c r="P43" s="15">
+      <c r="P43" s="14">
         <v>3</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="16">
         <v>510</v>
       </c>
-      <c r="R43" s="15">
+      <c r="R43" s="14">
         <v>3</v>
       </c>
-      <c r="S43" s="17">
+      <c r="S43" s="16">
         <v>560</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="14">
         <v>3</v>
       </c>
-      <c r="U43" s="17">
+      <c r="U43" s="16">
         <v>560</v>
       </c>
-      <c r="V43" s="15">
-        <v>1</v>
-      </c>
-      <c r="W43" s="17">
+      <c r="V43" s="14">
+        <v>1</v>
+      </c>
+      <c r="W43" s="16">
         <v>400</v>
       </c>
-      <c r="X43" s="15">
+      <c r="X43" s="14">
         <v>8</v>
       </c>
-      <c r="Y43" s="17">
+      <c r="Y43" s="16">
         <v>1180</v>
       </c>
     </row>
@@ -5125,76 +5156,76 @@
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>5</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>2240</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>6</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>2400</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="14">
         <v>6</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>2400</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>6</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="16">
         <v>2450</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="14">
         <v>6</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="16">
         <v>2450</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="14">
         <v>7</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>2880</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="14">
         <v>7</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="16">
         <v>2930</v>
       </c>
-      <c r="P44" s="15">
+      <c r="P44" s="14">
         <v>8</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="16">
         <v>3365</v>
       </c>
-      <c r="R44" s="15">
+      <c r="R44" s="14">
         <v>9</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="16">
         <v>3770</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="14">
         <v>8</v>
       </c>
-      <c r="U44" s="17">
+      <c r="U44" s="16">
         <v>3120</v>
       </c>
-      <c r="V44" s="15">
+      <c r="V44" s="14">
         <v>5</v>
       </c>
-      <c r="W44" s="17">
+      <c r="W44" s="16">
         <v>2500</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="14">
         <v>9</v>
       </c>
-      <c r="Y44" s="17">
+      <c r="Y44" s="16">
         <v>3095</v>
       </c>
     </row>
@@ -5202,76 +5233,76 @@
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
-      <c r="C45" s="17">
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="16">
         <v>668</v>
       </c>
-      <c r="D45" s="15">
-        <v>1</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16">
         <v>668</v>
       </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="F45" s="14">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
         <v>668</v>
       </c>
-      <c r="H45" s="15">
-        <v>1</v>
-      </c>
-      <c r="I45" s="17">
+      <c r="H45" s="14">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
         <v>668</v>
       </c>
-      <c r="J45" s="15">
-        <v>1</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="J45" s="14">
+        <v>1</v>
+      </c>
+      <c r="K45" s="16">
         <v>668</v>
       </c>
-      <c r="L45" s="15">
-        <v>1</v>
-      </c>
-      <c r="M45" s="17">
+      <c r="L45" s="14">
+        <v>1</v>
+      </c>
+      <c r="M45" s="16">
         <v>668</v>
       </c>
-      <c r="N45" s="15">
-        <v>1</v>
-      </c>
-      <c r="O45" s="17">
+      <c r="N45" s="14">
+        <v>1</v>
+      </c>
+      <c r="O45" s="16">
         <v>668</v>
       </c>
-      <c r="P45" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="17">
+      <c r="P45" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="16">
         <v>668</v>
       </c>
-      <c r="R45" s="15">
-        <v>2</v>
-      </c>
-      <c r="S45" s="17">
+      <c r="R45" s="14">
+        <v>2</v>
+      </c>
+      <c r="S45" s="16">
         <v>948</v>
       </c>
-      <c r="T45" s="15">
+      <c r="T45" s="14">
         <v>3</v>
       </c>
-      <c r="U45" s="17">
+      <c r="U45" s="16">
         <v>1018</v>
       </c>
-      <c r="V45" s="15">
-        <v>2</v>
-      </c>
-      <c r="W45" s="17">
+      <c r="V45" s="14">
+        <v>2</v>
+      </c>
+      <c r="W45" s="16">
         <v>768</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="14">
         <v>3</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="Y45" s="16">
         <v>1038</v>
       </c>
     </row>
@@ -5279,76 +5310,76 @@
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>3</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>5901</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>4</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>18901</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="14">
         <v>6</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="16">
         <v>20687</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>6</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="16">
         <v>23645</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <v>6</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="16">
         <v>23645</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="14">
         <v>10</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
         <v>25547</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="14">
         <v>11</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="16">
         <v>25651</v>
       </c>
-      <c r="P46" s="15">
+      <c r="P46" s="14">
         <v>17</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="16">
         <v>31005</v>
       </c>
-      <c r="R46" s="15">
+      <c r="R46" s="14">
         <v>21</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="16">
         <v>32813</v>
       </c>
-      <c r="T46" s="15">
+      <c r="T46" s="14">
         <v>24</v>
       </c>
-      <c r="U46" s="17">
+      <c r="U46" s="16">
         <v>39740</v>
       </c>
-      <c r="V46" s="15">
+      <c r="V46" s="14">
         <v>19</v>
       </c>
-      <c r="W46" s="17">
+      <c r="W46" s="16">
         <v>34227</v>
       </c>
-      <c r="X46" s="15">
+      <c r="X46" s="14">
         <v>32</v>
       </c>
-      <c r="Y46" s="17">
+      <c r="Y46" s="16">
         <v>39379</v>
       </c>
     </row>
@@ -5356,76 +5387,76 @@
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="15">
-        <v>1</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="16">
         <v>200</v>
       </c>
-      <c r="D47" s="15">
-        <v>1</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16">
         <v>200</v>
       </c>
-      <c r="F47" s="15">
-        <v>1</v>
-      </c>
-      <c r="G47" s="17">
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16">
         <v>200</v>
       </c>
-      <c r="H47" s="15">
-        <v>2</v>
-      </c>
-      <c r="I47" s="17">
+      <c r="H47" s="14">
+        <v>2</v>
+      </c>
+      <c r="I47" s="16">
         <v>300</v>
       </c>
-      <c r="J47" s="15">
-        <v>2</v>
-      </c>
-      <c r="K47" s="17">
+      <c r="J47" s="14">
+        <v>2</v>
+      </c>
+      <c r="K47" s="16">
         <v>430</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="14">
         <v>3</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="16">
         <v>1187</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="14">
         <v>4</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="16">
         <v>2367</v>
       </c>
-      <c r="P47" s="15">
+      <c r="P47" s="14">
         <v>5</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="16">
         <v>1835</v>
       </c>
-      <c r="R47" s="15">
+      <c r="R47" s="14">
         <v>8</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="16">
         <v>2648</v>
       </c>
-      <c r="T47" s="15">
+      <c r="T47" s="14">
         <v>11</v>
       </c>
-      <c r="U47" s="17">
+      <c r="U47" s="16">
         <v>3618</v>
       </c>
-      <c r="V47" s="15">
+      <c r="V47" s="14">
         <v>9</v>
       </c>
-      <c r="W47" s="17">
+      <c r="W47" s="16">
         <v>3208</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X47" s="14">
         <v>15</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="16">
         <v>3469</v>
       </c>
     </row>
@@ -5433,76 +5464,76 @@
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>3</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>1860</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>6</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <v>2370</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="14">
         <v>23</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>5741</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>32</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="16">
         <v>7675</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="14">
         <v>34</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="16">
         <v>8705</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="14">
         <v>34</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>8812</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="14">
         <v>33</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="16">
         <v>9199</v>
       </c>
-      <c r="P48" s="15">
+      <c r="P48" s="14">
         <v>35</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="16">
         <v>12669</v>
       </c>
-      <c r="R48" s="15">
+      <c r="R48" s="14">
         <v>36</v>
       </c>
-      <c r="S48" s="17">
+      <c r="S48" s="16">
         <v>10122</v>
       </c>
-      <c r="T48" s="15">
+      <c r="T48" s="14">
         <v>41</v>
       </c>
-      <c r="U48" s="17">
+      <c r="U48" s="16">
         <v>11646</v>
       </c>
-      <c r="V48" s="15">
+      <c r="V48" s="14">
         <v>21</v>
       </c>
-      <c r="W48" s="17">
+      <c r="W48" s="16">
         <v>8124</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="14">
         <v>53</v>
       </c>
-      <c r="Y48" s="17">
+      <c r="Y48" s="16">
         <v>26803</v>
       </c>
     </row>
@@ -5510,76 +5541,76 @@
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="15">
-        <v>2</v>
-      </c>
-      <c r="C49" s="17">
+      <c r="B49" s="14">
+        <v>2</v>
+      </c>
+      <c r="C49" s="16">
         <v>1466</v>
       </c>
-      <c r="D49" s="15">
-        <v>2</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="D49" s="14">
+        <v>2</v>
+      </c>
+      <c r="E49" s="16">
         <v>938</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="14">
         <v>3</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="16">
         <v>1888</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>3</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="16">
         <v>2401</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="14">
         <v>4</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="16">
         <v>3844</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <v>5</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <v>4376</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="14">
         <v>5</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="16">
         <v>2933</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="14">
         <v>3</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="16">
         <v>3043</v>
       </c>
-      <c r="R49" s="15">
+      <c r="R49" s="14">
         <v>3</v>
       </c>
-      <c r="S49" s="17">
+      <c r="S49" s="16">
         <v>2643</v>
       </c>
-      <c r="T49" s="15">
+      <c r="T49" s="14">
         <v>3</v>
       </c>
-      <c r="U49" s="17">
+      <c r="U49" s="16">
         <v>2868</v>
       </c>
-      <c r="V49" s="15">
-        <v>2</v>
-      </c>
-      <c r="W49" s="17">
+      <c r="V49" s="14">
+        <v>2</v>
+      </c>
+      <c r="W49" s="16">
         <v>1200</v>
       </c>
-      <c r="X49" s="15">
+      <c r="X49" s="14">
         <v>5</v>
       </c>
-      <c r="Y49" s="17">
+      <c r="Y49" s="16">
         <v>4005</v>
       </c>
     </row>
@@ -5587,76 +5618,76 @@
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17">
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="16">
         <v>200</v>
       </c>
-      <c r="D50" s="15">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16">
         <v>200</v>
       </c>
-      <c r="F50" s="15">
-        <v>2</v>
-      </c>
-      <c r="G50" s="17">
+      <c r="F50" s="14">
+        <v>2</v>
+      </c>
+      <c r="G50" s="16">
         <v>660</v>
       </c>
-      <c r="H50" s="15">
-        <v>2</v>
-      </c>
-      <c r="I50" s="17">
+      <c r="H50" s="14">
+        <v>2</v>
+      </c>
+      <c r="I50" s="16">
         <v>660</v>
       </c>
-      <c r="J50" s="15">
-        <v>2</v>
-      </c>
-      <c r="K50" s="17">
+      <c r="J50" s="14">
+        <v>2</v>
+      </c>
+      <c r="K50" s="16">
         <v>520</v>
       </c>
-      <c r="L50" s="15">
-        <v>2</v>
-      </c>
-      <c r="M50" s="17">
+      <c r="L50" s="14">
+        <v>2</v>
+      </c>
+      <c r="M50" s="16">
         <v>615</v>
       </c>
-      <c r="N50" s="15">
-        <v>1</v>
-      </c>
-      <c r="O50" s="17">
+      <c r="N50" s="14">
+        <v>1</v>
+      </c>
+      <c r="O50" s="16">
         <v>215</v>
       </c>
-      <c r="P50" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="17">
+      <c r="P50" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="16">
         <v>215</v>
       </c>
-      <c r="R50" s="15">
-        <v>1</v>
-      </c>
-      <c r="S50" s="17">
+      <c r="R50" s="14">
+        <v>1</v>
+      </c>
+      <c r="S50" s="16">
         <v>220</v>
       </c>
-      <c r="T50" s="15">
-        <v>1</v>
-      </c>
-      <c r="U50" s="17">
+      <c r="T50" s="14">
+        <v>1</v>
+      </c>
+      <c r="U50" s="16">
         <v>220</v>
       </c>
-      <c r="V50" s="15">
-        <v>1</v>
-      </c>
-      <c r="W50" s="17">
+      <c r="V50" s="14">
+        <v>1</v>
+      </c>
+      <c r="W50" s="16">
         <v>220</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="14">
         <v>4</v>
       </c>
-      <c r="Y50" s="17">
+      <c r="Y50" s="16">
         <v>1068</v>
       </c>
     </row>
@@ -5664,76 +5695,76 @@
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="15">
-        <v>1</v>
-      </c>
-      <c r="C51" s="17">
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="16">
         <v>70</v>
       </c>
-      <c r="D51" s="15">
-        <v>1</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16">
         <v>70</v>
       </c>
-      <c r="F51" s="15">
-        <v>1</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="16">
         <v>35</v>
       </c>
-      <c r="H51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="15">
-        <v>1</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="H51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1</v>
+      </c>
+      <c r="K51" s="16">
         <v>835</v>
       </c>
-      <c r="L51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M51" s="17">
+      <c r="L51" s="14">
+        <v>1</v>
+      </c>
+      <c r="M51" s="16">
         <v>835</v>
       </c>
-      <c r="N51" s="15">
-        <v>2</v>
-      </c>
-      <c r="O51" s="17">
+      <c r="N51" s="14">
+        <v>2</v>
+      </c>
+      <c r="O51" s="16">
         <v>915</v>
       </c>
-      <c r="P51" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="17">
+      <c r="P51" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="16">
         <v>891</v>
       </c>
-      <c r="R51" s="15">
-        <v>2</v>
-      </c>
-      <c r="S51" s="17">
+      <c r="R51" s="14">
+        <v>2</v>
+      </c>
+      <c r="S51" s="16">
         <v>925</v>
       </c>
-      <c r="T51" s="15">
-        <v>2</v>
-      </c>
-      <c r="U51" s="17">
+      <c r="T51" s="14">
+        <v>2</v>
+      </c>
+      <c r="U51" s="16">
         <v>881</v>
       </c>
-      <c r="V51" s="15">
-        <v>2</v>
-      </c>
-      <c r="W51" s="17">
+      <c r="V51" s="14">
+        <v>2</v>
+      </c>
+      <c r="W51" s="16">
         <v>881</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="14">
         <v>7</v>
       </c>
-      <c r="Y51" s="17">
+      <c r="Y51" s="16">
         <v>4120</v>
       </c>
     </row>
@@ -5741,76 +5772,76 @@
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="15">
-        <v>1</v>
-      </c>
-      <c r="C52" s="17">
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="16">
         <v>2092</v>
       </c>
-      <c r="D52" s="15">
-        <v>1</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16">
         <v>2092</v>
       </c>
-      <c r="F52" s="15">
-        <v>1</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16">
         <v>2092</v>
       </c>
-      <c r="H52" s="15">
-        <v>1</v>
-      </c>
-      <c r="I52" s="17">
+      <c r="H52" s="14">
+        <v>1</v>
+      </c>
+      <c r="I52" s="16">
         <v>2092</v>
       </c>
-      <c r="J52" s="15">
-        <v>1</v>
-      </c>
-      <c r="K52" s="17">
+      <c r="J52" s="14">
+        <v>1</v>
+      </c>
+      <c r="K52" s="16">
         <v>2092</v>
       </c>
-      <c r="L52" s="15">
-        <v>2</v>
-      </c>
-      <c r="M52" s="17">
+      <c r="L52" s="14">
+        <v>2</v>
+      </c>
+      <c r="M52" s="16">
         <v>2312</v>
       </c>
-      <c r="N52" s="15">
-        <v>2</v>
-      </c>
-      <c r="O52" s="17">
+      <c r="N52" s="14">
+        <v>2</v>
+      </c>
+      <c r="O52" s="16">
         <v>2312</v>
       </c>
-      <c r="P52" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="17">
+      <c r="P52" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="16">
         <v>2312</v>
       </c>
-      <c r="R52" s="15">
-        <v>2</v>
-      </c>
-      <c r="S52" s="17">
+      <c r="R52" s="14">
+        <v>2</v>
+      </c>
+      <c r="S52" s="16">
         <v>2312</v>
       </c>
-      <c r="T52" s="15">
-        <v>2</v>
-      </c>
-      <c r="U52" s="17">
+      <c r="T52" s="14">
+        <v>2</v>
+      </c>
+      <c r="U52" s="16">
         <v>2312</v>
       </c>
-      <c r="V52" s="15">
-        <v>2</v>
-      </c>
-      <c r="W52" s="17">
+      <c r="V52" s="14">
+        <v>2</v>
+      </c>
+      <c r="W52" s="16">
         <v>2312</v>
       </c>
-      <c r="X52" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="17">
+      <c r="X52" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="16">
         <v>2312</v>
       </c>
     </row>
@@ -5818,76 +5849,76 @@
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>3</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>1515</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>7</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="16">
         <v>2515</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>6</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="16">
         <v>2395</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>4</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="16">
         <v>1715</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="14">
         <v>4</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="16">
         <v>1795</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="14">
         <v>10</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="16">
         <v>5264</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="14">
         <v>10</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="16">
         <v>4656</v>
       </c>
-      <c r="P53" s="15">
+      <c r="P53" s="14">
         <v>12</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="16">
         <v>4966</v>
       </c>
-      <c r="R53" s="15">
+      <c r="R53" s="14">
         <v>13</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="16">
         <v>23933</v>
       </c>
-      <c r="T53" s="15">
+      <c r="T53" s="14">
         <v>13</v>
       </c>
-      <c r="U53" s="17">
+      <c r="U53" s="16">
         <v>24743</v>
       </c>
-      <c r="V53" s="15">
+      <c r="V53" s="14">
         <v>8</v>
       </c>
-      <c r="W53" s="17">
+      <c r="W53" s="16">
         <v>21424</v>
       </c>
-      <c r="X53" s="15">
+      <c r="X53" s="14">
         <v>7</v>
       </c>
-      <c r="Y53" s="17">
+      <c r="Y53" s="16">
         <v>20348</v>
       </c>
     </row>
@@ -5895,76 +5926,76 @@
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="15">
-        <v>2</v>
-      </c>
-      <c r="C54" s="17">
+      <c r="B54" s="14">
+        <v>2</v>
+      </c>
+      <c r="C54" s="16">
         <v>1107</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>4</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>1417</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="14">
         <v>4</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="16">
         <v>2229</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="14">
         <v>4</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="16">
         <v>1514</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="14">
         <v>4</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="16">
         <v>1658</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="14">
         <v>3</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>1558</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="14">
         <v>5</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="16">
         <v>1898</v>
       </c>
-      <c r="P54" s="15">
+      <c r="P54" s="14">
         <v>5</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="16">
         <v>1798</v>
       </c>
-      <c r="R54" s="15">
+      <c r="R54" s="14">
         <v>6</v>
       </c>
-      <c r="S54" s="17">
+      <c r="S54" s="16">
         <v>2068</v>
       </c>
-      <c r="T54" s="15">
+      <c r="T54" s="14">
         <v>8</v>
       </c>
-      <c r="U54" s="17">
+      <c r="U54" s="16">
         <v>2280</v>
       </c>
-      <c r="V54" s="15">
-        <v>2</v>
-      </c>
-      <c r="W54" s="17">
+      <c r="V54" s="14">
+        <v>2</v>
+      </c>
+      <c r="W54" s="16">
         <v>434</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X54" s="14">
         <v>5</v>
       </c>
-      <c r="Y54" s="17">
+      <c r="Y54" s="16">
         <v>2588</v>
       </c>
     </row>
@@ -5972,76 +6003,76 @@
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>3</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>650</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>4</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="16">
         <v>1417.4</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <v>3</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>1187</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>3</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="16">
         <v>1187</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="14">
         <v>3</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="16">
         <v>1187</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="14">
         <v>5</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="16">
         <v>1767</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="14">
         <v>7</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="16">
         <v>2543</v>
       </c>
-      <c r="P55" s="15">
+      <c r="P55" s="14">
         <v>8</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="16">
         <v>2743</v>
       </c>
-      <c r="R55" s="15">
+      <c r="R55" s="14">
         <v>7</v>
       </c>
-      <c r="S55" s="17">
+      <c r="S55" s="16">
         <v>3453</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T55" s="14">
         <v>8</v>
       </c>
-      <c r="U55" s="17">
+      <c r="U55" s="16">
         <v>3818</v>
       </c>
-      <c r="V55" s="15">
+      <c r="V55" s="14">
         <v>4</v>
       </c>
-      <c r="W55" s="17">
+      <c r="W55" s="16">
         <v>2321</v>
       </c>
-      <c r="X55" s="15">
+      <c r="X55" s="14">
         <v>10</v>
       </c>
-      <c r="Y55" s="17">
+      <c r="Y55" s="16">
         <v>3604</v>
       </c>
     </row>
@@ -6049,76 +6080,76 @@
       <c r="A56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>10</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>5039</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>11</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="16">
         <v>5026</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="14">
         <v>14</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>7485</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>18</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="16">
         <v>12176</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="14">
         <v>19</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="16">
         <v>12920</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="14">
         <v>24</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="16">
         <v>14445</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="14">
         <v>28</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="16">
         <v>18052</v>
       </c>
-      <c r="P56" s="15">
+      <c r="P56" s="14">
         <v>29</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="16">
         <v>18432</v>
       </c>
-      <c r="R56" s="15">
+      <c r="R56" s="14">
         <v>29</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="16">
         <v>19216</v>
       </c>
-      <c r="T56" s="15">
+      <c r="T56" s="14">
         <v>32</v>
       </c>
-      <c r="U56" s="17">
+      <c r="U56" s="16">
         <v>21722</v>
       </c>
-      <c r="V56" s="15">
+      <c r="V56" s="14">
         <v>22</v>
       </c>
-      <c r="W56" s="17">
+      <c r="W56" s="16">
         <v>19046</v>
       </c>
-      <c r="X56" s="15">
+      <c r="X56" s="14">
         <v>40</v>
       </c>
-      <c r="Y56" s="17">
+      <c r="Y56" s="16">
         <v>18639</v>
       </c>
     </row>
@@ -6126,76 +6157,76 @@
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>55</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>77547</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>74</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="16">
         <v>88551</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <v>61</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="16">
         <v>75460</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>52</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="16">
         <v>66515</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="14">
         <v>62</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="16">
         <v>86411</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="14">
         <v>62</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="16">
         <v>115945</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="14">
         <v>78</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="16">
         <v>135576</v>
       </c>
-      <c r="P57" s="15">
+      <c r="P57" s="14">
         <v>78</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="16">
         <v>123860</v>
       </c>
-      <c r="R57" s="15">
+      <c r="R57" s="14">
         <v>77</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="16">
         <v>141829.29999999999</v>
       </c>
-      <c r="T57" s="15">
+      <c r="T57" s="14">
         <v>72</v>
       </c>
-      <c r="U57" s="17">
+      <c r="U57" s="16">
         <v>148678.29999999999</v>
       </c>
-      <c r="V57" s="15">
+      <c r="V57" s="14">
         <v>47</v>
       </c>
-      <c r="W57" s="17">
+      <c r="W57" s="16">
         <v>175609.3</v>
       </c>
-      <c r="X57" s="15">
+      <c r="X57" s="14">
         <v>83</v>
       </c>
-      <c r="Y57" s="17">
+      <c r="Y57" s="16">
         <v>196132</v>
       </c>
     </row>
@@ -6203,76 +6234,76 @@
       <c r="A58" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N58" s="15">
-        <v>1</v>
-      </c>
-      <c r="O58" s="17">
+      <c r="B58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N58" s="14">
+        <v>1</v>
+      </c>
+      <c r="O58" s="16">
         <v>250</v>
       </c>
-      <c r="P58" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="17">
+      <c r="P58" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="16">
         <v>250</v>
       </c>
-      <c r="R58" s="15">
-        <v>1</v>
-      </c>
-      <c r="S58" s="17">
+      <c r="R58" s="14">
+        <v>1</v>
+      </c>
+      <c r="S58" s="16">
         <v>250</v>
       </c>
-      <c r="T58" s="15">
-        <v>1</v>
-      </c>
-      <c r="U58" s="17">
+      <c r="T58" s="14">
+        <v>1</v>
+      </c>
+      <c r="U58" s="16">
         <v>250</v>
       </c>
-      <c r="V58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X58" s="15">
+      <c r="V58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X58" s="14">
         <v>5</v>
       </c>
-      <c r="Y58" s="17">
+      <c r="Y58" s="16">
         <v>818</v>
       </c>
     </row>
@@ -6280,76 +6311,76 @@
       <c r="A59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="15">
-        <v>2</v>
-      </c>
-      <c r="C59" s="17">
+      <c r="B59" s="14">
+        <v>2</v>
+      </c>
+      <c r="C59" s="16">
         <v>2774</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>3</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="16">
         <v>3920</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="14">
         <v>4</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>5813</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="14">
         <v>6</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="16">
         <v>6763</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="14">
         <v>10</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="16">
         <v>10556</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="14">
         <v>12</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="16">
         <v>10875</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="14">
         <v>15</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="16">
         <v>11700</v>
       </c>
-      <c r="P59" s="15">
+      <c r="P59" s="14">
         <v>16</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="16">
         <v>11845</v>
       </c>
-      <c r="R59" s="15">
+      <c r="R59" s="14">
         <v>18</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="16">
         <v>15024</v>
       </c>
-      <c r="T59" s="15">
+      <c r="T59" s="14">
         <v>18</v>
       </c>
-      <c r="U59" s="17">
+      <c r="U59" s="16">
         <v>13407</v>
       </c>
-      <c r="V59" s="15">
+      <c r="V59" s="14">
         <v>15</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="16">
         <v>18311</v>
       </c>
-      <c r="X59" s="15">
+      <c r="X59" s="14">
         <v>15</v>
       </c>
-      <c r="Y59" s="17">
+      <c r="Y59" s="16">
         <v>21239</v>
       </c>
     </row>
@@ -6357,76 +6388,76 @@
       <c r="A60" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17">
+      <c r="B60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="G60" s="16">
         <v>300</v>
       </c>
-      <c r="H60" s="15">
-        <v>2</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="H60" s="14">
+        <v>2</v>
+      </c>
+      <c r="I60" s="16">
         <v>2179</v>
       </c>
-      <c r="J60" s="15">
-        <v>2</v>
-      </c>
-      <c r="K60" s="17">
+      <c r="J60" s="14">
+        <v>2</v>
+      </c>
+      <c r="K60" s="16">
         <v>1500</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="14">
         <v>3</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="16">
         <v>2164</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="14">
         <v>3</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="16">
         <v>2164</v>
       </c>
-      <c r="P60" s="15">
+      <c r="P60" s="14">
         <v>3</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="16">
         <v>2395</v>
       </c>
-      <c r="R60" s="15">
+      <c r="R60" s="14">
         <v>3</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="16">
         <v>2413</v>
       </c>
-      <c r="T60" s="15">
+      <c r="T60" s="14">
         <v>3</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="16">
         <v>2464</v>
       </c>
-      <c r="V60" s="15">
+      <c r="V60" s="14">
         <v>3</v>
       </c>
-      <c r="W60" s="17">
+      <c r="W60" s="16">
         <v>2464</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="14">
         <v>6</v>
       </c>
-      <c r="Y60" s="17">
+      <c r="Y60" s="16">
         <v>2884</v>
       </c>
     </row>
@@ -6434,76 +6465,76 @@
       <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="15">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17">
+      <c r="B61" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16">
         <v>155</v>
       </c>
-      <c r="F61" s="15">
-        <v>2</v>
-      </c>
-      <c r="G61" s="17">
+      <c r="F61" s="14">
+        <v>2</v>
+      </c>
+      <c r="G61" s="16">
         <v>304</v>
       </c>
-      <c r="H61" s="15">
-        <v>1</v>
-      </c>
-      <c r="I61" s="17">
+      <c r="H61" s="14">
+        <v>1</v>
+      </c>
+      <c r="I61" s="16">
         <v>204</v>
       </c>
-      <c r="J61" s="15">
-        <v>2</v>
-      </c>
-      <c r="K61" s="17">
+      <c r="J61" s="14">
+        <v>2</v>
+      </c>
+      <c r="K61" s="16">
         <v>304</v>
       </c>
-      <c r="L61" s="15">
-        <v>2</v>
-      </c>
-      <c r="M61" s="17">
+      <c r="L61" s="14">
+        <v>2</v>
+      </c>
+      <c r="M61" s="16">
         <v>1404</v>
       </c>
-      <c r="N61" s="15">
-        <v>2</v>
-      </c>
-      <c r="O61" s="17">
+      <c r="N61" s="14">
+        <v>2</v>
+      </c>
+      <c r="O61" s="16">
         <v>1404</v>
       </c>
-      <c r="P61" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="17">
+      <c r="P61" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="16">
         <v>1404</v>
       </c>
-      <c r="R61" s="15">
-        <v>1</v>
-      </c>
-      <c r="S61" s="17">
+      <c r="R61" s="14">
+        <v>1</v>
+      </c>
+      <c r="S61" s="16">
         <v>204</v>
       </c>
-      <c r="T61" s="15">
+      <c r="T61" s="14">
         <v>3</v>
       </c>
-      <c r="U61" s="17">
+      <c r="U61" s="16">
         <v>1728</v>
       </c>
-      <c r="V61" s="15">
-        <v>2</v>
-      </c>
-      <c r="W61" s="17">
+      <c r="V61" s="14">
+        <v>2</v>
+      </c>
+      <c r="W61" s="16">
         <v>650</v>
       </c>
-      <c r="X61" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="17">
+      <c r="X61" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="16">
         <v>330</v>
       </c>
     </row>
@@ -6511,76 +6542,76 @@
       <c r="A62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1</v>
-      </c>
-      <c r="E62" s="17">
+      <c r="B62" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16">
         <v>28</v>
       </c>
-      <c r="F62" s="15">
-        <v>2</v>
-      </c>
-      <c r="G62" s="17">
+      <c r="F62" s="14">
+        <v>2</v>
+      </c>
+      <c r="G62" s="16">
         <v>316</v>
       </c>
-      <c r="H62" s="15">
-        <v>2</v>
-      </c>
-      <c r="I62" s="17">
+      <c r="H62" s="14">
+        <v>2</v>
+      </c>
+      <c r="I62" s="16">
         <v>316</v>
       </c>
-      <c r="J62" s="15">
-        <v>1</v>
-      </c>
-      <c r="K62" s="17">
+      <c r="J62" s="14">
+        <v>1</v>
+      </c>
+      <c r="K62" s="16">
         <v>28</v>
       </c>
-      <c r="L62" s="15">
-        <v>1</v>
-      </c>
-      <c r="M62" s="17">
+      <c r="L62" s="14">
+        <v>1</v>
+      </c>
+      <c r="M62" s="16">
         <v>28</v>
       </c>
-      <c r="N62" s="15">
-        <v>1</v>
-      </c>
-      <c r="O62" s="17">
+      <c r="N62" s="14">
+        <v>1</v>
+      </c>
+      <c r="O62" s="16">
         <v>150</v>
       </c>
-      <c r="P62" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="17">
+      <c r="P62" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="16">
         <v>150</v>
       </c>
-      <c r="R62" s="15">
-        <v>1</v>
-      </c>
-      <c r="S62" s="17">
+      <c r="R62" s="14">
+        <v>1</v>
+      </c>
+      <c r="S62" s="16">
         <v>150</v>
       </c>
-      <c r="T62" s="15">
-        <v>2</v>
-      </c>
-      <c r="U62" s="17">
+      <c r="T62" s="14">
+        <v>2</v>
+      </c>
+      <c r="U62" s="16">
         <v>550</v>
       </c>
-      <c r="V62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y62" s="16" t="s">
+      <c r="V62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y62" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6588,76 +6619,76 @@
       <c r="A63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" s="15">
-        <v>2</v>
-      </c>
-      <c r="K63" s="17">
+      <c r="B63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="14">
+        <v>2</v>
+      </c>
+      <c r="K63" s="16">
         <v>1400</v>
       </c>
-      <c r="L63" s="15">
-        <v>1</v>
-      </c>
-      <c r="M63" s="17">
+      <c r="L63" s="14">
+        <v>1</v>
+      </c>
+      <c r="M63" s="16">
         <v>800</v>
       </c>
-      <c r="N63" s="15">
-        <v>2</v>
-      </c>
-      <c r="O63" s="17">
+      <c r="N63" s="14">
+        <v>2</v>
+      </c>
+      <c r="O63" s="16">
         <v>1400</v>
       </c>
-      <c r="P63" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="17">
+      <c r="P63" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="16">
         <v>1400</v>
       </c>
-      <c r="R63" s="15">
-        <v>2</v>
-      </c>
-      <c r="S63" s="17">
+      <c r="R63" s="14">
+        <v>2</v>
+      </c>
+      <c r="S63" s="16">
         <v>1400</v>
       </c>
-      <c r="T63" s="15">
+      <c r="T63" s="14">
         <v>3</v>
       </c>
-      <c r="U63" s="17">
+      <c r="U63" s="16">
         <v>2100</v>
       </c>
-      <c r="V63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X63" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="17">
+      <c r="V63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X63" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="16">
         <v>240</v>
       </c>
     </row>
@@ -6665,76 +6696,76 @@
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="15">
-        <v>1</v>
-      </c>
-      <c r="I64" s="17">
+      <c r="B64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="14">
+        <v>1</v>
+      </c>
+      <c r="I64" s="16">
         <v>300</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="14">
         <v>3</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>700</v>
       </c>
-      <c r="L64" s="15">
-        <v>2</v>
-      </c>
-      <c r="M64" s="17">
+      <c r="L64" s="14">
+        <v>2</v>
+      </c>
+      <c r="M64" s="16">
         <v>500</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="14">
         <v>6</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="16">
         <v>1445</v>
       </c>
-      <c r="P64" s="15">
+      <c r="P64" s="14">
         <v>7</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>3816</v>
       </c>
-      <c r="R64" s="15">
+      <c r="R64" s="14">
         <v>6</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="16">
         <v>3724</v>
       </c>
-      <c r="T64" s="15">
+      <c r="T64" s="14">
         <v>6</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="16">
         <v>3724</v>
       </c>
-      <c r="V64" s="15">
+      <c r="V64" s="14">
         <v>5</v>
       </c>
-      <c r="W64" s="17">
+      <c r="W64" s="16">
         <v>3724</v>
       </c>
-      <c r="X64" s="15">
+      <c r="X64" s="14">
         <v>6</v>
       </c>
-      <c r="Y64" s="17">
+      <c r="Y64" s="16">
         <v>3574</v>
       </c>
     </row>
@@ -6742,76 +6773,76 @@
       <c r="A65" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" s="17">
+      <c r="B65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="33">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16">
         <v>220</v>
       </c>
-      <c r="H65" s="15">
-        <v>1</v>
-      </c>
-      <c r="I65" s="17">
+      <c r="H65" s="14">
+        <v>1</v>
+      </c>
+      <c r="I65" s="16">
         <v>220</v>
       </c>
-      <c r="J65" s="15">
-        <v>1</v>
-      </c>
-      <c r="K65" s="17">
+      <c r="J65" s="14">
+        <v>1</v>
+      </c>
+      <c r="K65" s="16">
         <v>220</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="14">
         <v>3</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="16">
         <v>2813</v>
       </c>
-      <c r="N65" s="15">
-        <v>2</v>
-      </c>
-      <c r="O65" s="17">
+      <c r="N65" s="14">
+        <v>2</v>
+      </c>
+      <c r="O65" s="16">
         <v>2363</v>
       </c>
-      <c r="P65" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="17">
+      <c r="P65" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="16">
         <v>2363</v>
       </c>
-      <c r="R65" s="15">
-        <v>2</v>
-      </c>
-      <c r="S65" s="17">
+      <c r="R65" s="14">
+        <v>2</v>
+      </c>
+      <c r="S65" s="16">
         <v>2206</v>
       </c>
-      <c r="T65" s="15">
-        <v>2</v>
-      </c>
-      <c r="U65" s="17">
+      <c r="T65" s="14">
+        <v>2</v>
+      </c>
+      <c r="U65" s="16">
         <v>2363</v>
       </c>
-      <c r="V65" s="15">
-        <v>2</v>
-      </c>
-      <c r="W65" s="17">
+      <c r="V65" s="14">
+        <v>2</v>
+      </c>
+      <c r="W65" s="16">
         <v>2363</v>
       </c>
-      <c r="X65" s="15">
+      <c r="X65" s="14">
         <v>4</v>
       </c>
-      <c r="Y65" s="17">
+      <c r="Y65" s="16">
         <v>2980</v>
       </c>
     </row>
@@ -6819,76 +6850,76 @@
       <c r="A66" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>7</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>24441</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>9</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="16">
         <v>27277</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="14">
         <v>10</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>25753</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="14">
         <v>11</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="16">
         <v>26479</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="14">
         <v>11</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="16">
         <v>26229</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="14">
         <v>14</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="16">
         <v>27209</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="14">
         <v>13</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O66" s="16">
         <v>25609</v>
       </c>
-      <c r="P66" s="15">
+      <c r="P66" s="14">
         <v>14</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q66" s="16">
         <v>25717</v>
       </c>
-      <c r="R66" s="15">
+      <c r="R66" s="14">
         <v>12</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="16">
         <v>9872</v>
       </c>
-      <c r="T66" s="15">
+      <c r="T66" s="14">
         <v>10</v>
       </c>
-      <c r="U66" s="17">
+      <c r="U66" s="16">
         <v>18843</v>
       </c>
-      <c r="V66" s="15">
+      <c r="V66" s="14">
         <v>7</v>
       </c>
-      <c r="W66" s="17">
+      <c r="W66" s="16">
         <v>15682</v>
       </c>
-      <c r="X66" s="15">
+      <c r="X66" s="14">
         <v>13</v>
       </c>
-      <c r="Y66" s="17">
+      <c r="Y66" s="16">
         <v>16532</v>
       </c>
     </row>
@@ -6896,76 +6927,76 @@
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X67" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y67" s="16" t="s">
+      <c r="B67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y67" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6973,153 +7004,153 @@
       <c r="A68" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="15">
-        <v>1</v>
-      </c>
-      <c r="C68" s="17">
+      <c r="B68" s="14">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16">
         <v>1020</v>
       </c>
-      <c r="D68" s="15">
-        <v>1</v>
-      </c>
-      <c r="E68" s="17">
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16">
         <v>1020</v>
       </c>
-      <c r="F68" s="15">
-        <v>1</v>
-      </c>
-      <c r="G68" s="17">
+      <c r="F68" s="14">
+        <v>1</v>
+      </c>
+      <c r="G68" s="16">
         <v>1020</v>
       </c>
-      <c r="H68" s="15">
-        <v>1</v>
-      </c>
-      <c r="I68" s="17">
+      <c r="H68" s="14">
+        <v>1</v>
+      </c>
+      <c r="I68" s="16">
         <v>1014</v>
       </c>
-      <c r="J68" s="15">
-        <v>1</v>
-      </c>
-      <c r="K68" s="17">
+      <c r="J68" s="14">
+        <v>1</v>
+      </c>
+      <c r="K68" s="16">
         <v>1014</v>
       </c>
-      <c r="L68" s="15">
-        <v>1</v>
-      </c>
-      <c r="M68" s="17">
+      <c r="L68" s="14">
+        <v>1</v>
+      </c>
+      <c r="M68" s="16">
         <v>1014</v>
       </c>
-      <c r="N68" s="15">
-        <v>1</v>
-      </c>
-      <c r="O68" s="17">
+      <c r="N68" s="14">
+        <v>1</v>
+      </c>
+      <c r="O68" s="16">
         <v>1014</v>
       </c>
-      <c r="P68" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="17">
+      <c r="P68" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="16">
         <v>1014</v>
       </c>
-      <c r="R68" s="15">
-        <v>1</v>
-      </c>
-      <c r="S68" s="17">
+      <c r="R68" s="14">
+        <v>1</v>
+      </c>
+      <c r="S68" s="16">
         <v>1014</v>
       </c>
-      <c r="T68" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X68" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="17">
+      <c r="T68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X68" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="16">
         <v>1014</v>
       </c>
     </row>
     <row r="69" spans="1:25" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="22">
-        <v>1</v>
-      </c>
-      <c r="E69" s="19">
+      <c r="B69" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="35">
+        <v>1</v>
+      </c>
+      <c r="E69" s="18">
         <v>3211</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="35">
         <v>4</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="18">
         <v>3911</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="35">
         <v>4</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="18">
         <v>3911</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="35">
         <v>4</v>
       </c>
-      <c r="K69" s="23">
+      <c r="K69" s="20">
         <v>1634</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="35">
         <v>4</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="20">
         <v>1734</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="35">
         <v>9</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="18">
         <v>3394</v>
       </c>
-      <c r="P69" s="22">
+      <c r="P69" s="35">
         <v>8</v>
       </c>
-      <c r="Q69" s="23">
+      <c r="Q69" s="20">
         <v>3094</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R69" s="35">
         <v>5</v>
       </c>
-      <c r="S69" s="23">
+      <c r="S69" s="20">
         <v>2179</v>
       </c>
-      <c r="T69" s="22">
+      <c r="T69" s="19">
         <v>7</v>
       </c>
-      <c r="U69" s="23">
+      <c r="U69" s="20">
         <v>4661</v>
       </c>
-      <c r="V69" s="22">
+      <c r="V69" s="19">
         <v>5</v>
       </c>
-      <c r="W69" s="23">
+      <c r="W69" s="20">
         <v>2651</v>
       </c>
-      <c r="X69" s="22">
+      <c r="X69" s="19">
         <v>10</v>
       </c>
-      <c r="Y69" s="19">
+      <c r="Y69" s="18">
         <v>5159</v>
       </c>
     </row>
